--- a/test/data/json_test.xlsx
+++ b/test/data/json_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hschovanec/Repositories/earthquake-impact-utils/test/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DF2A1CA-787F-BE49-B28C-5745E8B4AAD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F90B57-7A3F-BE49-8CC8-847A4E3220C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="460" windowWidth="26740" windowHeight="16940" xr2:uid="{F45D1A8B-FC79-3340-ADC5-A1D021E534A9}"/>
+    <workbookView xWindow="2160" yWindow="460" windowWidth="12080" windowHeight="16460" xr2:uid="{F45D1A8B-FC79-3340-ADC5-A1D021E534A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
   <si>
     <t>reference</t>
   </si>
@@ -124,6 +124,48 @@
   </si>
   <si>
     <t>duration</t>
+  </si>
+  <si>
+    <t>INSTRUMENT</t>
+  </si>
+  <si>
+    <t>SERIAL</t>
+  </si>
+  <si>
+    <t>PERIOD</t>
+  </si>
+  <si>
+    <t>DAMPING</t>
+  </si>
+  <si>
+    <t>SENSITIVITY</t>
+  </si>
+  <si>
+    <t>SOURCE_FORMAT</t>
+  </si>
+  <si>
+    <t>STRUCTURE</t>
+  </si>
+  <si>
+    <t>sensor</t>
+  </si>
+  <si>
+    <t>cosmos</t>
+  </si>
+  <si>
+    <t>csmd</t>
+  </si>
+  <si>
+    <t>mining</t>
+  </si>
+  <si>
+    <t>building</t>
+  </si>
+  <si>
+    <t>bunker</t>
+  </si>
+  <si>
+    <t>bridge</t>
   </si>
 </sst>
 </file>
@@ -497,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41CAAB5E-EBE7-4944-94FE-DE2A6A027BF7}">
-  <dimension ref="A1:Y20"/>
+  <dimension ref="A1:AF20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2:Y2"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -508,13 +550,13 @@
     <col min="1" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="3"/>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Q1" s="3"/>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -542,80 +584,101 @@
       <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="R2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="R2" s="6"/>
       <c r="S2" s="6"/>
       <c r="T2" s="6"/>
       <c r="U2" s="6"/>
       <c r="V2" s="6"/>
-      <c r="W2" s="7" t="s">
+      <c r="W2" s="6"/>
+      <c r="X2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="J3" s="3"/>
-      <c r="K3" s="1" t="s">
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="7"/>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="Q3" s="3"/>
+      <c r="R3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="W3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="X3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="Y3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="Z3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="AA3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="AB3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="V3" s="5" t="s">
+      <c r="AC3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="AD3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="AE3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Y3" s="5" t="s">
+      <c r="AF3" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -643,48 +706,69 @@
       <c r="I4" s="1">
         <v>89</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M4" s="1">
+        <v>4</v>
+      </c>
+      <c r="N4" s="1">
+        <v>10</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q4" s="4">
         <v>0</v>
       </c>
-      <c r="K4" s="1">
+      <c r="R4" s="1">
         <v>3.99</v>
       </c>
-      <c r="L4" s="1">
+      <c r="S4" s="1">
         <v>1.94</v>
       </c>
-      <c r="M4" s="1">
+      <c r="T4" s="1">
         <v>0.48799999999999999</v>
       </c>
-      <c r="N4" s="1">
+      <c r="U4" s="1">
         <v>3.69</v>
       </c>
-      <c r="O4" s="1">
+      <c r="V4" s="1">
         <v>2.65</v>
       </c>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1">
+      <c r="W4" s="1"/>
+      <c r="X4" s="1">
         <v>2.6</v>
       </c>
-      <c r="R4" s="1">
+      <c r="Y4" s="1">
         <v>3.66</v>
       </c>
-      <c r="S4" s="1">
+      <c r="Z4" s="1">
         <v>0.23400000000000001</v>
       </c>
-      <c r="T4" s="1">
+      <c r="AA4" s="1">
         <v>4.5599999999999996</v>
       </c>
-      <c r="U4" s="1">
+      <c r="AB4" s="1">
         <v>9.76</v>
       </c>
-      <c r="V4" s="2">
+      <c r="AC4" s="2">
         <v>3.45</v>
       </c>
-      <c r="W4" s="5">
+      <c r="AD4" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -712,46 +796,67 @@
       <c r="I5" s="1">
         <v>70</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="1">
+        <v>2</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="M5" s="1">
+        <v>5</v>
+      </c>
+      <c r="N5" s="1">
+        <v>100</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q5" s="4">
         <v>0</v>
       </c>
-      <c r="K5" s="1">
+      <c r="R5" s="1">
         <v>2.34</v>
       </c>
-      <c r="L5" s="1">
+      <c r="S5" s="1">
         <v>1.45</v>
-      </c>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1">
-        <v>2.69</v>
-      </c>
-      <c r="O5" s="1">
-        <v>1.23</v>
-      </c>
-      <c r="P5" s="1">
-        <v>0.65700000000000003</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>0.123</v>
-      </c>
-      <c r="R5" s="1">
-        <v>2.1230000000000002</v>
-      </c>
-      <c r="S5" s="1">
-        <v>0.23300000000000001</v>
       </c>
       <c r="T5" s="1"/>
       <c r="U5" s="1">
+        <v>2.69</v>
+      </c>
+      <c r="V5" s="1">
+        <v>1.23</v>
+      </c>
+      <c r="W5" s="1">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="X5" s="1">
+        <v>0.123</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>2.1230000000000002</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1">
         <v>1.2344999999999999</v>
       </c>
-      <c r="V5" s="2">
+      <c r="AC5" s="2">
         <v>0.78900000000000003</v>
       </c>
-      <c r="X5" s="5">
+      <c r="AE5" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
@@ -779,35 +884,56 @@
       <c r="I6" s="1">
         <v>75</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" s="1">
+        <v>3</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="M6" s="1">
+        <v>6</v>
+      </c>
+      <c r="N6" s="1">
+        <v>1000</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q6" s="4">
         <v>0</v>
       </c>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
-      <c r="W6" s="2">
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AD6" s="2">
         <v>2</v>
       </c>
-      <c r="X6" s="2">
+      <c r="AE6" s="2">
         <v>3</v>
       </c>
-      <c r="Y6" s="2">
+      <c r="AF6" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -817,20 +943,27 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="4"/>
+      <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
+      <c r="Q7" s="4"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -840,20 +973,27 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="4"/>
+      <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
+      <c r="Q8" s="4"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -863,20 +1003,27 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="4"/>
+      <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
+      <c r="Q9" s="4"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -886,20 +1033,27 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="4"/>
+      <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
+      <c r="Q10" s="4"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -909,20 +1063,27 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="4"/>
+      <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
+      <c r="Q11" s="4"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -932,20 +1093,27 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="4"/>
+      <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
+      <c r="Q12" s="4"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -955,20 +1123,27 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="4"/>
+      <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
+      <c r="Q13" s="4"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -978,20 +1153,27 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="4"/>
+      <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
+      <c r="Q14" s="4"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1001,20 +1183,27 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="4"/>
+      <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
+      <c r="Q15" s="4"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1024,20 +1213,27 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="4"/>
+      <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
+      <c r="Q16" s="4"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1047,20 +1243,27 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="4"/>
+      <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
+      <c r="Q17" s="4"/>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1070,20 +1273,27 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="4"/>
+      <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
+      <c r="Q18" s="4"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1093,20 +1303,27 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="4"/>
+      <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
+      <c r="Q19" s="4"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1"/>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1116,24 +1333,31 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="4"/>
+      <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
+      <c r="Q20" s="4"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="K2:P2"/>
-    <mergeCell ref="Q2:V2"/>
-    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="R2:W2"/>
+    <mergeCell ref="X2:AC2"/>
+    <mergeCell ref="AD2:AF2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
